--- a/data/dataThongtinhanghoaDCTien_case8.xlsx
+++ b/data/dataThongtinhanghoaDCTien_case8.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Soluong</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>Xoa</t>
+  </si>
+  <si>
+    <t>Máy giặt Panasonic 210</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>500000</t>
   </si>
 </sst>
 </file>
@@ -379,7 +388,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -436,10 +445,27 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
